--- a/data/trans_camb/Hacinamiento_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 0,93</t>
+          <t>-5,14; 1,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 4,01</t>
+          <t>-3,27; 4,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,32; -0,11</t>
+          <t>-7,09; -0,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 4,68</t>
+          <t>-2,85; 4,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 2,03</t>
+          <t>-5,09; 2,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 2,98</t>
+          <t>-6,08; 2,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 1,81</t>
+          <t>-3,2; 1,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,08</t>
+          <t>-2,99; 1,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,9; -0,36</t>
+          <t>-5,45; 0,11</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-60,11; 19,42</t>
+          <t>-57,01; 31,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,79; 68,17</t>
+          <t>-36,56; 72,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-86,43; 3,84</t>
+          <t>-86,77; 4,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,25; 72,0</t>
+          <t>-28,25; 71,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,7; 29,66</t>
+          <t>-50,76; 35,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,45; 44,76</t>
+          <t>-64,74; 41,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,6; 29,02</t>
+          <t>-34,35; 23,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,84; 31,38</t>
+          <t>-34,45; 28,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-68,16; -1,48</t>
+          <t>-65,77; 3,1</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 1,01</t>
+          <t>-4,15; 0,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,84</t>
+          <t>-2,63; 2,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,17; -2,52</t>
+          <t>-7,44; -2,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 5,29</t>
+          <t>-1,48; 5,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 0,57</t>
+          <t>-5,36; 0,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,74; -3,66</t>
+          <t>-8,57; -3,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 2,25</t>
+          <t>-1,84; 2,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,29</t>
+          <t>-3,0; 1,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; -3,75</t>
+          <t>-7,14; -3,72</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-51,64; 23,4</t>
+          <t>-54,29; 17,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,92; 59,52</t>
+          <t>-35,5; 63,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-98,54; -43,57</t>
+          <t>-98,59; -23,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 87,91</t>
+          <t>-16,77; 82,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,58; 11,76</t>
+          <t>-54,87; 11,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-90,0; -51,92</t>
+          <t>-89,18; -53,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 37,23</t>
+          <t>-23,43; 37,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,03; 22,45</t>
+          <t>-37,87; 17,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-88,96; -57,82</t>
+          <t>-89,13; -60,25</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,3; 6,87</t>
+          <t>0,73; 6,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,87</t>
+          <t>-2,05; 2,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 2,45</t>
+          <t>-2,6; 2,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 5,42</t>
+          <t>-1,04; 5,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 1,62</t>
+          <t>-4,31; 1,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,19; -0,47</t>
+          <t>-5,88; -0,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,93</t>
+          <t>0,48; 4,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 1,13</t>
+          <t>-2,68; 1,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 0,25</t>
+          <t>-3,84; 0,13</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,37; 223,27</t>
+          <t>13,06; 221,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,3; 104,47</t>
+          <t>-39,07; 96,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,08; 81,69</t>
+          <t>-50,0; 82,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 82,58</t>
+          <t>-10,88; 82,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,18; 24,46</t>
+          <t>-44,47; 17,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,53; -5,33</t>
+          <t>-57,65; -8,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,11; 92,87</t>
+          <t>5,85; 88,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,33; 21,29</t>
+          <t>-36,25; 26,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-48,53; 4,97</t>
+          <t>-50,07; 3,72</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 3,03</t>
+          <t>-2,03; 3,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 2,21</t>
+          <t>-2,47; 2,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 0,73</t>
+          <t>-3,61; 0,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 1,65</t>
+          <t>-3,41; 1,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 1,51</t>
+          <t>-3,44; 1,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,59; -0,13</t>
+          <t>-4,74; -0,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 1,64</t>
+          <t>-2,04; 1,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,23</t>
+          <t>-2,36; 1,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,45; -0,31</t>
+          <t>-3,35; -0,36</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-34,24; 117,5</t>
+          <t>-38,73; 111,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-52,03; 89,53</t>
+          <t>-50,38; 88,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-65,96; 30,05</t>
+          <t>-66,98; 36,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-56,33; 46,1</t>
+          <t>-53,22; 56,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-54,12; 45,87</t>
+          <t>-54,23; 49,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-68,18; -2,13</t>
+          <t>-68,73; -4,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-37,39; 46,38</t>
+          <t>-40,66; 41,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-41,15; 34,88</t>
+          <t>-42,4; 30,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-59,92; -6,82</t>
+          <t>-59,88; -6,5</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 1,82</t>
+          <t>-3,82; 1,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 0,7</t>
+          <t>-3,98; 0,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,35; -0,03</t>
+          <t>-4,43; 0,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 1,11</t>
+          <t>-4,03; 1,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 1,55</t>
+          <t>-3,32; 1,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,37; -1,03</t>
+          <t>-5,21; -0,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 0,7</t>
+          <t>-2,82; 0,67</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 0,3</t>
+          <t>-3,22; 0,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,25; -1,02</t>
+          <t>-4,26; -1,02</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-64,45; 92,24</t>
+          <t>-67,31; 46,64</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-77,85; 43,97</t>
+          <t>-74,48; 32,56</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-80,02; 3,41</t>
+          <t>-81,58; 6,22</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-66,91; 43,33</t>
+          <t>-66,35; 44,59</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-64,05; 70,21</t>
+          <t>-60,99; 68,09</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-86,06; -33,89</t>
+          <t>-86,19; -32,28</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-57,99; 23,52</t>
+          <t>-56,13; 22,87</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-62,31; 11,44</t>
+          <t>-61,74; 16,73</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-77,62; -29,94</t>
+          <t>-78,76; -31,83</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,83</t>
+          <t>-1,88; 2,18</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,59</t>
+          <t>-2,84; 0,66</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 0,2</t>
+          <t>-2,96; 0,28</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 0,43</t>
+          <t>-2,32; 0,44</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,64</t>
+          <t>-1,42; 1,54</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,82; -0,52</t>
+          <t>-2,77; -0,6</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,64</t>
+          <t>-1,64; 0,68</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,65</t>
+          <t>-1,64; 0,6</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,43; -0,55</t>
+          <t>-2,44; -0,57</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-52,31; 100,96</t>
+          <t>-50,53; 128,31</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-73,66; 41,13</t>
+          <t>-73,79; 48,6</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-72,78; 17,32</t>
+          <t>-74,48; 20,3</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-78,68; 46,29</t>
+          <t>-79,83; 45,43</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-56,69; 138,34</t>
+          <t>-56,04; 136,3</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-91,33; -32,22</t>
+          <t>-90,92; -38,24</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-57,28; 34,76</t>
+          <t>-55,34; 40,12</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-57,14; 40,66</t>
+          <t>-55,99; 32,95</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-78,75; -30,12</t>
+          <t>-77,97; -30,06</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,99</t>
+          <t>-1,13; 1,02</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 0,56</t>
+          <t>-1,66; 0,53</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,46; -1,48</t>
+          <t>-3,43; -1,48</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,46</t>
+          <t>-0,96; 1,44</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,37</t>
+          <t>-2,39; -0,33</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,52; -2,46</t>
+          <t>-4,52; -2,56</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,87</t>
+          <t>-0,74; 0,91</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,72; -0,18</t>
+          <t>-1,78; -0,21</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,67; -2,28</t>
+          <t>-3,62; -2,28</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 24,23</t>
+          <t>-21,07; 24,6</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 13,14</t>
+          <t>-30,81; 12,63</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-63,9; -34,03</t>
+          <t>-63,98; -33,29</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 27,51</t>
+          <t>-15,21; 26,37</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-37,97; -7,14</t>
+          <t>-36,66; -6,2</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-67,48; -44,35</t>
+          <t>-67,49; -46,65</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 17,32</t>
+          <t>-12,72; 18,23</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-29,75; -3,53</t>
+          <t>-30,46; -4,4</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-63,54; -46,42</t>
+          <t>-62,6; -45,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Hacinamiento_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 1,62</t>
+          <t>-5,4; 0,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 4,05</t>
+          <t>-3,35; 4,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,09; -0,02</t>
+          <t>-7,28; -0,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,88</t>
+          <t>-2,86; 4,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 2,35</t>
+          <t>-5,26; 1,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 2,82</t>
+          <t>-6,22; 3,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 1,52</t>
+          <t>-3,11; 1,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 1,85</t>
+          <t>-3,14; 1,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 0,11</t>
+          <t>-5,71; -0,34</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-57,01; 31,41</t>
+          <t>-59,84; 17,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,56; 72,89</t>
+          <t>-37,56; 71,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-86,77; 4,7</t>
+          <t>-86,21; 10,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,25; 71,04</t>
+          <t>-28,47; 74,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,76; 35,54</t>
+          <t>-50,16; 28,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,74; 41,32</t>
+          <t>-64,97; 47,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,35; 23,59</t>
+          <t>-35,21; 21,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,45; 28,37</t>
+          <t>-34,34; 25,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-65,77; 3,1</t>
+          <t>-66,72; -3,48</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 0,82</t>
+          <t>-4,21; 0,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 2,96</t>
+          <t>-2,64; 3,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,44; -2,87</t>
+          <t>-7,46; -2,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 5,21</t>
+          <t>-1,3; 5,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 0,53</t>
+          <t>-5,34; 0,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,57; -3,61</t>
+          <t>-8,77; -3,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,21</t>
+          <t>-2,1; 2,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 1,04</t>
+          <t>-3,09; 0,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,14; -3,72</t>
+          <t>-7,19; -3,74</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-54,29; 17,0</t>
+          <t>-53,95; 17,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,5; 63,56</t>
+          <t>-35,82; 63,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-98,59; -23,12</t>
+          <t>-98,68; -35,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 82,83</t>
+          <t>-14,03; 83,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,87; 11,43</t>
+          <t>-55,76; 11,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-89,18; -53,02</t>
+          <t>-88,82; -52,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,43; 37,52</t>
+          <t>-26,21; 37,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,87; 17,99</t>
+          <t>-39,17; 16,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-89,13; -60,25</t>
+          <t>-88,83; -58,73</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,25</t>
+          <t>0,72; 6,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 2,74</t>
+          <t>-2,08; 2,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,31</t>
+          <t>-2,63; 2,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 5,53</t>
+          <t>-1,05; 5,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 1,19</t>
+          <t>-4,46; 1,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,88; -0,63</t>
+          <t>-5,67; -0,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,74</t>
+          <t>0,61; 4,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 1,33</t>
+          <t>-2,44; 1,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 0,13</t>
+          <t>-3,48; 0,3</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,06; 221,83</t>
+          <t>8,79; 210,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,07; 96,36</t>
+          <t>-38,61; 96,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-50,0; 82,51</t>
+          <t>-49,81; 73,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 82,91</t>
+          <t>-10,62; 87,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,47; 17,06</t>
+          <t>-44,02; 22,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,65; -8,35</t>
+          <t>-57,21; -7,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,85; 88,87</t>
+          <t>8,41; 88,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,25; 26,24</t>
+          <t>-33,63; 25,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-50,07; 3,72</t>
+          <t>-47,81; 6,02</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 3,0</t>
+          <t>-1,91; 2,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 2,3</t>
+          <t>-2,58; 2,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 0,8</t>
+          <t>-3,57; 0,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 1,78</t>
+          <t>-3,76; 1,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 1,59</t>
+          <t>-3,45; 1,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,74; -0,32</t>
+          <t>-4,9; -0,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 1,5</t>
+          <t>-2,13; 1,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 1,12</t>
+          <t>-2,24; 1,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,35; -0,36</t>
+          <t>-3,58; -0,53</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,73; 111,52</t>
+          <t>-38,95; 105,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-50,38; 88,25</t>
+          <t>-49,37; 100,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-66,98; 36,27</t>
+          <t>-67,7; 30,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-53,22; 56,7</t>
+          <t>-56,75; 46,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-54,23; 49,47</t>
+          <t>-53,67; 38,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-68,73; -4,14</t>
+          <t>-69,69; -4,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-40,66; 41,52</t>
+          <t>-39,88; 42,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-42,4; 30,66</t>
+          <t>-40,54; 39,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-59,88; -6,5</t>
+          <t>-64,5; -14,06</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,13</t>
+          <t>-3,34; 1,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 0,73</t>
+          <t>-4,18; 0,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 0,08</t>
+          <t>-4,68; -0,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 1,19</t>
+          <t>-3,98; 1,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,66</t>
+          <t>-3,49; 1,51</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,21; -0,97</t>
+          <t>-5,34; -1,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 0,67</t>
+          <t>-2,95; 0,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 0,42</t>
+          <t>-3,05; 0,43</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,26; -1,02</t>
+          <t>-4,1; -1,05</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-67,31; 46,64</t>
+          <t>-66,44; 61,87</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-74,48; 32,56</t>
+          <t>-78,67; 31,79</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-81,58; 6,22</t>
+          <t>-82,22; 2,71</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-66,35; 44,59</t>
+          <t>-67,4; 42,95</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-60,99; 68,09</t>
+          <t>-63,49; 54,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-86,19; -32,28</t>
+          <t>-86,24; -33,44</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-56,13; 22,87</t>
+          <t>-58,54; 19,92</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-61,74; 16,73</t>
+          <t>-60,53; 14,19</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-78,76; -31,83</t>
+          <t>-77,97; -32,15</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,18</t>
+          <t>-1,83; 2,2</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 0,66</t>
+          <t>-2,95; 0,64</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,28</t>
+          <t>-3,05; 0,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 0,44</t>
+          <t>-2,09; 0,56</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,54</t>
+          <t>-1,57; 1,55</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,77; -0,6</t>
+          <t>-2,81; -0,53</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,68</t>
+          <t>-1,54; 0,61</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,6</t>
+          <t>-1,6; 0,68</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,44; -0,57</t>
+          <t>-2,35; -0,51</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-50,53; 128,31</t>
+          <t>-49,95; 127,07</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-73,79; 48,6</t>
+          <t>-74,9; 45,23</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-74,48; 20,3</t>
+          <t>-76,62; 22,84</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-79,83; 45,43</t>
+          <t>-77,73; 47,9</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-56,04; 136,3</t>
+          <t>-60,32; 133,86</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-90,92; -38,24</t>
+          <t>-90,59; -34,41</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-55,34; 40,12</t>
+          <t>-51,93; 38,49</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-55,99; 32,95</t>
+          <t>-55,58; 41,01</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-77,97; -30,06</t>
+          <t>-76,38; -28,29</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,02</t>
+          <t>-1,18; 0,96</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 0,53</t>
+          <t>-1,56; 0,53</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,43; -1,48</t>
+          <t>-3,47; -1,53</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,44</t>
+          <t>-1,01; 1,39</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,39; -0,33</t>
+          <t>-2,51; -0,3</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,52; -2,56</t>
+          <t>-4,58; -2,65</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,91</t>
+          <t>-0,71; 0,92</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,78; -0,21</t>
+          <t>-1,77; -0,24</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,62; -2,28</t>
+          <t>-3,69; -2,29</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-21,07; 24,6</t>
+          <t>-22,44; 22,54</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-30,81; 12,63</t>
+          <t>-28,81; 12,5</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-63,98; -33,29</t>
+          <t>-63,73; -34,76</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 26,37</t>
+          <t>-14,74; 25,58</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-36,66; -6,2</t>
+          <t>-37,67; -5,1</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-67,49; -46,65</t>
+          <t>-67,96; -47,06</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 18,23</t>
+          <t>-12,27; 18,1</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-30,46; -4,4</t>
+          <t>-30,64; -4,89</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-62,6; -45,43</t>
+          <t>-62,62; -45,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Hacinamiento_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 0,82</t>
+          <t>-5,28; 0,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 4,19</t>
+          <t>-3,22; 4,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,28; -0,06</t>
+          <t>-7,32; -0,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 4,79</t>
+          <t>-2,7; 4,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 1,82</t>
+          <t>-5,27; 2,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 3,11</t>
+          <t>-6,1; 2,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 1,56</t>
+          <t>-3,0; 1,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 1,78</t>
+          <t>-3,03; 2,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,71; -0,34</t>
+          <t>-5,9; -0,36</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-59,84; 17,89</t>
+          <t>-60,11; 19,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-37,56; 71,98</t>
+          <t>-36,79; 68,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-86,21; 10,63</t>
+          <t>-86,43; 3,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,47; 74,0</t>
+          <t>-27,25; 72,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,16; 28,69</t>
+          <t>-50,7; 29,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,97; 47,58</t>
+          <t>-64,45; 44,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,21; 21,94</t>
+          <t>-33,6; 29,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,34; 25,77</t>
+          <t>-34,84; 31,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-66,72; -3,48</t>
+          <t>-68,16; -1,48</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 0,84</t>
+          <t>-3,99; 1,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 3,1</t>
+          <t>-2,58; 2,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,46; -2,74</t>
+          <t>-7,17; -2,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 5,23</t>
+          <t>-1,24; 5,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 0,48</t>
+          <t>-5,2; 0,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,77; -3,49</t>
+          <t>-8,74; -3,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 2,13</t>
+          <t>-1,89; 2,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 0,95</t>
+          <t>-2,87; 1,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,19; -3,74</t>
+          <t>-7,31; -3,75</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-53,95; 17,45</t>
+          <t>-51,64; 23,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,82; 63,05</t>
+          <t>-35,92; 59,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-98,68; -35,2</t>
+          <t>-98,54; -43,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 83,48</t>
+          <t>-13,86; 87,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,76; 11,02</t>
+          <t>-55,58; 11,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-88,82; -52,29</t>
+          <t>-90,0; -51,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,21; 37,59</t>
+          <t>-23,9; 37,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,17; 16,03</t>
+          <t>-37,03; 22,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-88,83; -58,73</t>
+          <t>-88,96; -57,82</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,18</t>
+          <t>1,3; 6,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 2,79</t>
+          <t>-2,07; 2,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 2,22</t>
+          <t>-2,44; 2,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 5,62</t>
+          <t>-0,98; 5,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 1,36</t>
+          <t>-4,2; 1,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,67; -0,56</t>
+          <t>-6,19; -0,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 4,67</t>
+          <t>0,93; 4,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,29</t>
+          <t>-2,56; 1,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 0,3</t>
+          <t>-3,47; 0,25</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,79; 210,29</t>
+          <t>19,37; 223,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,61; 96,68</t>
+          <t>-37,3; 104,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,81; 73,31</t>
+          <t>-48,08; 81,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 87,05</t>
+          <t>-10,15; 82,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,02; 22,97</t>
+          <t>-42,18; 24,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,21; -7,95</t>
+          <t>-58,53; -5,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,41; 88,86</t>
+          <t>12,11; 92,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 25,3</t>
+          <t>-35,33; 21,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-47,81; 6,02</t>
+          <t>-48,53; 4,97</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 2,99</t>
+          <t>-1,63; 3,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,46</t>
+          <t>-2,77; 2,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 0,7</t>
+          <t>-3,57; 0,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 1,54</t>
+          <t>-3,54; 1,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 1,41</t>
+          <t>-3,38; 1,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,9; -0,25</t>
+          <t>-4,59; -0,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 1,48</t>
+          <t>-2,04; 1,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 1,25</t>
+          <t>-2,23; 1,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,58; -0,53</t>
+          <t>-3,45; -0,31</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,95; 105,45</t>
+          <t>-34,24; 117,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-49,37; 100,87</t>
+          <t>-52,03; 89,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-67,7; 30,38</t>
+          <t>-65,96; 30,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-56,75; 46,6</t>
+          <t>-56,33; 46,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-53,67; 38,83</t>
+          <t>-54,12; 45,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-69,69; -4,36</t>
+          <t>-68,18; -2,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-39,88; 42,18</t>
+          <t>-37,39; 46,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-40,54; 39,19</t>
+          <t>-41,15; 34,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-64,5; -14,06</t>
+          <t>-59,92; -6,82</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 1,44</t>
+          <t>-3,28; 1,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 0,68</t>
+          <t>-4,32; 0,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,68; -0,17</t>
+          <t>-4,35; -0,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 1,12</t>
+          <t>-3,92; 1,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 1,51</t>
+          <t>-3,61; 1,55</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,34; -1,09</t>
+          <t>-5,37; -1,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 0,62</t>
+          <t>-2,92; 0,7</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 0,43</t>
+          <t>-3,25; 0,3</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,1; -1,05</t>
+          <t>-4,25; -1,02</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-66,44; 61,87</t>
+          <t>-64,45; 92,24</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-78,67; 31,79</t>
+          <t>-77,85; 43,97</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-82,22; 2,71</t>
+          <t>-80,02; 3,41</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-67,4; 42,95</t>
+          <t>-66,91; 43,33</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-63,49; 54,37</t>
+          <t>-64,05; 70,21</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-86,24; -33,44</t>
+          <t>-86,06; -33,89</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-58,54; 19,92</t>
+          <t>-57,99; 23,52</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-60,53; 14,19</t>
+          <t>-62,31; 11,44</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-77,97; -32,15</t>
+          <t>-77,62; -29,94</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 2,2</t>
+          <t>-1,97; 1,83</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 0,64</t>
+          <t>-2,98; 0,59</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 0,35</t>
+          <t>-2,97; 0,2</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 0,56</t>
+          <t>-2,27; 0,43</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,55</t>
+          <t>-1,56; 1,64</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,81; -0,53</t>
+          <t>-2,82; -0,52</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,61</t>
+          <t>-1,71; 0,64</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 0,68</t>
+          <t>-1,67; 0,65</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,35; -0,51</t>
+          <t>-2,43; -0,55</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-49,95; 127,07</t>
+          <t>-52,31; 100,96</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-74,9; 45,23</t>
+          <t>-73,66; 41,13</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-76,62; 22,84</t>
+          <t>-72,78; 17,32</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-77,73; 47,9</t>
+          <t>-78,68; 46,29</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-60,32; 133,86</t>
+          <t>-56,69; 138,34</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-90,59; -34,41</t>
+          <t>-91,33; -32,22</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-51,93; 38,49</t>
+          <t>-57,28; 34,76</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-55,58; 41,01</t>
+          <t>-57,14; 40,66</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-76,38; -28,29</t>
+          <t>-78,75; -30,12</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,96</t>
+          <t>-1,11; 0,99</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 0,53</t>
+          <t>-1,55; 0,56</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,47; -1,53</t>
+          <t>-3,46; -1,48</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,39</t>
+          <t>-1,01; 1,46</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,51; -0,3</t>
+          <t>-2,47; -0,37</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,58; -2,65</t>
+          <t>-4,52; -2,46</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,92</t>
+          <t>-0,66; 0,87</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,77; -0,24</t>
+          <t>-1,72; -0,18</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,69; -2,29</t>
+          <t>-3,67; -2,28</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-22,44; 22,54</t>
+          <t>-20,05; 24,23</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-28,81; 12,5</t>
+          <t>-28,84; 13,14</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-63,73; -34,76</t>
+          <t>-63,9; -34,03</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 25,58</t>
+          <t>-15,36; 27,51</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-37,67; -5,1</t>
+          <t>-37,97; -7,14</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-67,96; -47,06</t>
+          <t>-67,48; -44,35</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 18,1</t>
+          <t>-11,46; 17,32</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-30,64; -4,89</t>
+          <t>-29,75; -3,53</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-62,62; -45,16</t>
+          <t>-63,54; -46,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Hacinamiento_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,14</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-2,78</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,32; -0,11</t>
+          <t>-7,21; 0,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 2,98</t>
+          <t>-5,41; 5,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,9; -0,36</t>
+          <t>-5,56; 0,51</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-56,76%</t>
+          <t>-54,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-26,57%</t>
+          <t>-13,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-40,88%</t>
+          <t>-35,46%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-86,43; 3,84</t>
+          <t>-85,98; 18,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,45; 44,76</t>
+          <t>-58,6; 72,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-68,16; -1,48</t>
+          <t>-65,56; 11,95</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,93</t>
+          <t>-6,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,49</t>
+          <t>-5,58</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,17; -2,52</t>
+          <t>-7,22; -2,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,74; -3,66</t>
+          <t>-9,0; -3,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; -3,75</t>
+          <t>-7,37; -3,85</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-84,38%</t>
+          <t>-84,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-75,89%</t>
+          <t>-78,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-78,99%</t>
+          <t>-80,39%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-98,54; -43,57</t>
+          <t>-98,16; -39,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-90,0; -51,92</t>
+          <t>-91,36; -58,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-88,96; -57,82</t>
+          <t>-90,06; -60,45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-1,73</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 2,45</t>
+          <t>-2,37; 2,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,19; -0,47</t>
+          <t>-6,4; -0,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 0,25</t>
+          <t>-3,6; 0,2</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,92%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-37,97%</t>
+          <t>-39,94%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-26,87%</t>
+          <t>-27,29%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,08; 81,69</t>
+          <t>-46,77; 85,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,53; -5,33</t>
+          <t>-61,0; -7,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-48,53; 4,97</t>
+          <t>-49,58; 3,72</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-2,13</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 0,73</t>
+          <t>-4,37; 0,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,59; -0,13</t>
+          <t>-4,59; -0,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,45; -0,31</t>
+          <t>-3,94; -0,69</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-33,77%</t>
+          <t>-47,92%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-46,27%</t>
+          <t>-46,98%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-40,72%</t>
+          <t>-48,13%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-65,96; 30,05</t>
+          <t>-82,19; 8,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-68,18; -2,13</t>
+          <t>-68,43; -2,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-59,92; -6,82</t>
+          <t>-72,48; -21,63</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-2,46</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,35; -0,03</t>
+          <t>-4,32; 0,07</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,37; -1,03</t>
+          <t>-5,4; -1,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,25; -1,02</t>
+          <t>-4,24; -1,01</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-51,79%</t>
+          <t>-50,55%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-69,19%</t>
+          <t>-69,68%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-60,65%</t>
+          <t>-60,2%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-80,02; 3,41</t>
+          <t>-79,4; 7,97</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-86,06; -33,89</t>
+          <t>-86,09; -34,76</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-77,62; -29,94</t>
+          <t>-77,44; -29,66</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-1,48</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,83</t>
+          <t>-2,74; 2,96</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,59</t>
+          <t>-4,12; 0,89</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 0,2</t>
+          <t>-4,02; 0,72</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 0,43</t>
+          <t>-3,0; 0,52</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,64</t>
+          <t>-1,5; 2,91</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,82; -0,52</t>
+          <t>-3,57; -0,17</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,64</t>
+          <t>-2,05; 1,13</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,65</t>
+          <t>-2,1; 1,26</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,43; -0,55</t>
+          <t>-3,0; -0,3</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-38,0%</t>
+          <t>-43,83%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-44,54%</t>
+          <t>-39,8%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-40,71%</t>
+          <t>-55,7%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-1,42%</t>
+          <t>27,28%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-74,9%</t>
+          <t>-73,29%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-19,19%</t>
+          <t>-20,44%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-20,16%</t>
+          <t>-15,08%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-60,36%</t>
+          <t>-58,22%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-52,31; 100,96</t>
+          <t>-60,7; 161,73</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-73,66; 41,13</t>
+          <t>-83,28; 75,04</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-72,78; 17,32</t>
+          <t>-77,27; 46,71</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-78,68; 46,29</t>
+          <t>-95,37; 106,86</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-56,69; 138,34</t>
+          <t>-60,3; 338,09</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-91,33; -32,22</t>
+          <t>-95,97; -13,55</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-57,28; 34,76</t>
+          <t>-61,8; 75,07</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-57,14; 40,66</t>
+          <t>-62,14; 72,97</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-78,75; -30,12</t>
+          <t>-84,93; -16,67</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-1,48</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,99</t>
+          <t>-2,66; 2,59</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 0,56</t>
+          <t>-2,9; 1,8</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,46; -1,48</t>
+          <t>-3,64; 0,43</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,46</t>
+          <t>-2,73; 1,35</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,37</t>
+          <t>-3,07; 1,5</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,52; -2,46</t>
+          <t>-4,09; -0,34</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,87</t>
+          <t>-1,92; 1,36</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,72; -0,18</t>
+          <t>-2,28; 1,12</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,67; -2,28</t>
+          <t>-2,95; -0,38</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-1,27%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-10,72%</t>
+          <t>-25,09%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-51,23%</t>
+          <t>-54,02%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>-28,06%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-23,79%</t>
+          <t>-27,15%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-58,06%</t>
+          <t>-82,47%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>-16,62%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-18,04%</t>
+          <t>-26,31%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-55,0%</t>
+          <t>-70,89%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-81,19; 364,63</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-94,74; 90,02</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-83,1; 206,92</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-86,49; 222,24</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-98,77; 5,81</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-65,52; 136,34</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-75,44; 98,73</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-91,02; -17,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-1,42</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-3,49</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-0,97</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-3,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 0,99</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 0,56</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-3,55; -1,54</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 1,46</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; -0,37</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; -2,41</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 0,87</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; -0,18</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; -2,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-1,27%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-10,72%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-52,91%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>3,92%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-23,79%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-58,53%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-18,04%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-56,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-20,05; 24,23</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-28,84; 13,14</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-63,9; -34,03</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-66,61; -35,24</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-15,36; 27,51</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-37,97; -7,14</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-67,48; -44,35</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-69,2; -43,85</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-11,46; 17,32</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-29,75; -3,53</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-63,54; -46,42</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-64,93; -46,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/Hacinamiento_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 0,93</t>
+          <t>-5,55; 1,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 4,01</t>
+          <t>-3,05; 4,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 0,66</t>
+          <t>-7,26; 1,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 4,68</t>
+          <t>-2,63; 4,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 2,03</t>
+          <t>-4,9; 2,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 5,15</t>
+          <t>-5,42; 4,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 1,81</t>
+          <t>-3,07; 1,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,08</t>
+          <t>-3,03; 1,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 0,51</t>
+          <t>-5,66; 0,95</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-60,11; 19,42</t>
+          <t>-59,99; 23,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,79; 68,17</t>
+          <t>-34,16; 72,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-85,98; 18,57</t>
+          <t>-86,46; 30,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,25; 72,0</t>
+          <t>-26,93; 76,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,7; 29,66</t>
+          <t>-51,0; 28,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,6; 72,55</t>
+          <t>-55,08; 74,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,6; 29,02</t>
+          <t>-34,31; 24,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,84; 31,38</t>
+          <t>-34,58; 29,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-65,56; 11,95</t>
+          <t>-65,12; 15,55</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 1,01</t>
+          <t>-3,99; 0,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,84</t>
+          <t>-2,52; 3,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,22; -2,57</t>
+          <t>-7,37; -2,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 5,29</t>
+          <t>-1,18; 5,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 0,57</t>
+          <t>-5,3; 0,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,0; -3,83</t>
+          <t>-8,64; -3,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 2,25</t>
+          <t>-1,74; 2,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,29</t>
+          <t>-3,01; 1,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,37; -3,85</t>
+          <t>-7,35; -4,13</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-51,64; 23,4</t>
+          <t>-54,38; 19,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,92; 59,52</t>
+          <t>-34,87; 61,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-98,16; -39,81</t>
+          <t>-98,35; -37,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 87,91</t>
+          <t>-13,3; 87,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,58; 11,76</t>
+          <t>-56,56; 8,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-91,36; -58,29</t>
+          <t>-90,76; -53,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 37,23</t>
+          <t>-22,91; 40,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,03; 22,45</t>
+          <t>-38,24; 17,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-90,06; -60,45</t>
+          <t>-89,86; -61,21</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,3; 6,87</t>
+          <t>0,94; 5,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,87</t>
+          <t>-2,05; 2,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 2,59</t>
+          <t>-2,52; 2,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 5,42</t>
+          <t>-1,15; 5,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 1,62</t>
+          <t>-4,29; 1,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,4; -0,58</t>
+          <t>-6,15; -0,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,93</t>
+          <t>0,6; 4,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 1,13</t>
+          <t>-2,52; 1,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 0,2</t>
+          <t>-3,67; 0,02</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,37; 223,27</t>
+          <t>14,02; 212,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,3; 104,47</t>
+          <t>-36,41; 104,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-46,77; 85,92</t>
+          <t>-47,56; 87,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 82,58</t>
+          <t>-11,99; 83,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,18; 24,46</t>
+          <t>-44,01; 21,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-61,0; -7,1</t>
+          <t>-62,08; -8,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,11; 92,87</t>
+          <t>7,94; 89,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,33; 21,29</t>
+          <t>-34,43; 25,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-49,58; 3,72</t>
+          <t>-50,08; 1,17</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 3,03</t>
+          <t>-1,98; 3,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 2,21</t>
+          <t>-2,43; 2,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 0,16</t>
+          <t>-4,33; 0,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 1,65</t>
+          <t>-3,68; 1,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 1,51</t>
+          <t>-3,46; 1,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,59; -0,17</t>
+          <t>-4,72; -0,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 1,64</t>
+          <t>-2,03; 1,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,23</t>
+          <t>-2,28; 1,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,94; -0,69</t>
+          <t>-3,91; -0,68</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-34,24; 117,5</t>
+          <t>-39,14; 120,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-52,03; 89,53</t>
+          <t>-46,25; 89,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-82,19; 8,04</t>
+          <t>-81,54; 4,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-56,33; 46,1</t>
+          <t>-57,13; 60,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-54,12; 45,87</t>
+          <t>-54,12; 43,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-68,43; -2,82</t>
+          <t>-69,63; -6,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-37,39; 46,38</t>
+          <t>-38,75; 42,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-41,15; 34,88</t>
+          <t>-44,79; 35,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-72,48; -21,63</t>
+          <t>-71,57; -19,46</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 1,82</t>
+          <t>-3,66; 1,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 0,7</t>
+          <t>-4,23; 0,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 0,07</t>
+          <t>-4,64; 0,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 1,11</t>
+          <t>-3,74; 1,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 1,55</t>
+          <t>-3,71; 1,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,4; -1,01</t>
+          <t>-5,26; -1,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 0,7</t>
+          <t>-2,9; 0,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 0,3</t>
+          <t>-3,18; 0,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,24; -1,01</t>
+          <t>-4,35; -1,07</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-64,45; 92,24</t>
+          <t>-65,72; 73,26</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-77,85; 43,97</t>
+          <t>-77,06; 34,1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-79,4; 7,97</t>
+          <t>-80,14; 13,23</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-66,91; 43,33</t>
+          <t>-64,04; 54,96</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-64,05; 70,21</t>
+          <t>-64,6; 63,16</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-86,09; -34,76</t>
+          <t>-87,26; -39,37</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-57,99; 23,52</t>
+          <t>-57,23; 25,23</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-62,31; 11,44</t>
+          <t>-61,65; 9,96</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-77,44; -29,66</t>
+          <t>-78,33; -32,5</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 2,96</t>
+          <t>-2,71; 2,9</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 0,89</t>
+          <t>-4,43; 0,83</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 0,72</t>
+          <t>-3,97; 0,95</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 0,52</t>
+          <t>-2,78; 0,56</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 2,91</t>
+          <t>-1,65; 2,83</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,57; -0,17</t>
+          <t>-3,13; -0,17</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,13</t>
+          <t>-2,17; 1,04</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,26</t>
+          <t>-1,86; 1,54</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,0; -0,3</t>
+          <t>-2,98; -0,23</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-60,7; 161,73</t>
+          <t>-59,55; 148,32</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-83,28; 75,04</t>
+          <t>-85,49; 61,95</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-77,27; 46,71</t>
+          <t>-78,21; 59,31</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-95,37; 106,86</t>
+          <t>-100,0; 111,89</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-60,3; 338,09</t>
+          <t>-64,17; 287,79</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-95,97; -13,55</t>
+          <t>-95,83; -14,06</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-61,8; 75,07</t>
+          <t>-64,58; 59,09</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-62,14; 72,97</t>
+          <t>-59,26; 92,14</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-84,93; -16,67</t>
+          <t>-82,73; -10,94</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 2,59</t>
+          <t>-2,52; 2,65</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -1991,37 +1991,37 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 0,43</t>
+          <t>-3,53; 0,69</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,35</t>
+          <t>-2,79; 1,31</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 1,5</t>
+          <t>-2,79; 1,62</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,09; -0,34</t>
+          <t>-4,0; -0,3</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,36</t>
+          <t>-2,03; 1,23</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,12</t>
+          <t>-2,25; 1,11</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,95; -0,38</t>
+          <t>-3,11; -0,35</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-81,19; 364,63</t>
+          <t>-84,12; 333,72</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,28; 249,56</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-94,74; 90,02</t>
+          <t>-91,31; 181,64</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-83,1; 206,92</t>
+          <t>-87,47; 144,62</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-86,49; 222,24</t>
+          <t>-86,32; 298,7</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-98,77; 5,81</t>
+          <t>-100,0; 16,3</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-65,52; 136,34</t>
+          <t>-66,24; 112,29</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-75,44; 98,73</t>
+          <t>-73,99; 128,08</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-91,02; -17,63</t>
+          <t>-92,39; -16,12</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,99</t>
+          <t>-1,16; 1,0</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 0,56</t>
+          <t>-1,57; 0,51</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,55; -1,54</t>
+          <t>-3,56; -1,52</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,46</t>
+          <t>-0,83; 1,47</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,37</t>
+          <t>-2,64; -0,34</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,54; -2,41</t>
+          <t>-4,48; -2,45</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,87</t>
+          <t>-0,73; 0,88</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,72; -0,18</t>
+          <t>-1,7; -0,2</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,76; -2,33</t>
+          <t>-3,73; -2,27</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 24,23</t>
+          <t>-21,69; 23,47</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 13,14</t>
+          <t>-29,05; 11,96</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-66,61; -35,24</t>
+          <t>-66,75; -33,6</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 27,51</t>
+          <t>-12,85; 27,22</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-37,97; -7,14</t>
+          <t>-39,62; -5,81</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-69,2; -43,85</t>
+          <t>-68,98; -44,91</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 17,32</t>
+          <t>-12,65; 17,79</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-29,75; -3,53</t>
+          <t>-29,5; -3,99</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-64,93; -46,56</t>
+          <t>-64,78; -45,72</t>
         </is>
       </c>
     </row>
